--- a/Issue Tracker.xlsx
+++ b/Issue Tracker.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>No</t>
   </si>
@@ -51,6 +51,36 @@
   </si>
   <si>
     <t>It was throwing exception when we click on the compare button and was not leading to the next page</t>
+  </si>
+  <si>
+    <t>Date of Detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detected by </t>
+  </si>
+  <si>
+    <t>Resolved by</t>
+  </si>
+  <si>
+    <t>Akanksha</t>
+  </si>
+  <si>
+    <t>Smitha</t>
+  </si>
+  <si>
+    <t>Database Connectivity</t>
+  </si>
+  <si>
+    <t>Solved</t>
+  </si>
+  <si>
+    <t>On clicking of the Continue button we are getting navigated but the drop down was empty</t>
+  </si>
+  <si>
+    <t>the row Contact number of the booking table was not getting inserted</t>
+  </si>
+  <si>
+    <t>No validations for sign up page for password and confirm password fields</t>
   </si>
 </sst>
 </file>
@@ -406,19 +436,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,61 +464,198 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
-        <v>42574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>42570</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42552</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>42578</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>42574</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42564</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>42579</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>42574</v>
+      </c>
+      <c r="E4" s="1">
+        <v>42566</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>42578</v>
+      </c>
+      <c r="E5" s="1">
+        <v>42573</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42579</v>
+      </c>
+      <c r="E6" s="1">
+        <v>42577</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>42586</v>
+      </c>
+      <c r="E7" s="1">
+        <v>42580</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>42589</v>
+      </c>
+      <c r="E8" s="1">
+        <v>42587</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
         <v>42591</v>
+      </c>
+      <c r="E9" s="1">
+        <v>42591</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
